--- a/outputs-HGR-r202/o__Coriobacteriales.xlsx
+++ b/outputs-HGR-r202/o__Coriobacteriales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,22 +488,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0006509683753183483</v>
+        <v>0.01955303825838339</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02787087728233342</v>
+        <v>0.02581705263624678</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9713271167578723</v>
+        <v>0.9528189800809628</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001508287619315227</v>
+        <v>0.001763880008769172</v>
       </c>
       <c r="F2" t="n">
-        <v>2.088225444047991e-07</v>
+        <v>4.704901563771727e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9713271167578723</v>
+        <v>0.9528189800809628</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -523,22 +523,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.003196413081294514</v>
+        <v>0.001998156679457938</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9951493692000941</v>
+        <v>0.9895542501604597</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0005305921384159728</v>
+        <v>0.0002824211824636895</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001088195966552805</v>
+        <v>0.008149304440978474</v>
       </c>
       <c r="F3" t="n">
-        <v>3.542961364245195e-05</v>
+        <v>1.586753664016944e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9951493692000941</v>
+        <v>0.9895542501604597</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -558,22 +558,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.232237524668937e-05</v>
+        <v>1.801719894482918e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001289487282870249</v>
+        <v>0.001288832908490581</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9983280325591871</v>
+        <v>0.9970179967785181</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0003651052978088361</v>
+        <v>0.001665129035724097</v>
       </c>
       <c r="F4" t="n">
-        <v>5.052484886883983e-06</v>
+        <v>1.002407832247913e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9983280325591871</v>
+        <v>0.9970179967785181</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -593,22 +593,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.304755311307628e-06</v>
+        <v>2.973311653958346e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01838647326893553</v>
+        <v>0.01295411797979594</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9815754963440584</v>
+        <v>0.9864861265261461</v>
       </c>
       <c r="E5" t="n">
-        <v>3.563349653693611e-05</v>
+        <v>0.0005189401009150481</v>
       </c>
       <c r="F5" t="n">
-        <v>1.092135157684985e-06</v>
+        <v>1.108227660325427e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9815754963440584</v>
+        <v>0.9864861265261461</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -628,22 +628,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0009944097212502179</v>
+        <v>0.0003722736057764961</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9965592934126143</v>
+        <v>0.9955536732897441</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001421487188013542</v>
+        <v>0.0006851936056629353</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0005129451141237355</v>
+        <v>0.003368638493127601</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0005118645639980888</v>
+        <v>2.022100568886245e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9965592934126143</v>
+        <v>0.9955536732897441</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -663,22 +663,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7953720163440368</v>
+        <v>0.9291832291625971</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1948266274969572</v>
+        <v>0.06684165460805601</v>
       </c>
       <c r="D7" t="n">
-        <v>4.673794910577668e-05</v>
+        <v>4.949616756213162e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0006749215870757183</v>
+        <v>0.0008279084526723067</v>
       </c>
       <c r="F7" t="n">
-        <v>0.009079696622824575</v>
+        <v>0.003142258159918307</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7953720163440368</v>
+        <v>0.9291832291625971</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -698,22 +698,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9895539019530984</v>
+        <v>0.9929416795116703</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007457452401768091</v>
+        <v>0.001783889891535719</v>
       </c>
       <c r="D8" t="n">
-        <v>2.198336512693754e-05</v>
+        <v>5.223468434397454e-06</v>
       </c>
       <c r="E8" t="n">
-        <v>0.000823744721803653</v>
+        <v>0.004487752298067537</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002142917558202905</v>
+        <v>0.0007814548302920349</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9895539019530984</v>
+        <v>0.9929416795116703</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -733,22 +733,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9352231974316109</v>
+        <v>0.9794226646973487</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04021176169072069</v>
+        <v>0.005786032420307777</v>
       </c>
       <c r="D9" t="n">
-        <v>4.576594081597376e-05</v>
+        <v>2.566397081736578e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001056514664952158</v>
+        <v>0.001317121611499313</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02346276027190038</v>
+        <v>0.01344851730002696</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9352231974316109</v>
+        <v>0.9794226646973487</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -768,22 +768,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9544819183630759</v>
+        <v>0.9505911865027058</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01152311398270945</v>
+        <v>0.0007823384316065881</v>
       </c>
       <c r="D10" t="n">
-        <v>1.346966687170173e-05</v>
+        <v>5.217016793191984e-06</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0004809049932548</v>
+        <v>0.001934612703144438</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03350059299408815</v>
+        <v>0.04668664534575008</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9544819183630759</v>
+        <v>0.9505911865027058</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -803,22 +803,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5912848012274958</v>
+        <v>0.8686392490432945</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3893623930397343</v>
+        <v>0.1275124925154283</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0001632435902442071</v>
+        <v>4.432030215823644e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001433540039923421</v>
+        <v>0.002150955712616848</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01775602210260211</v>
+        <v>0.001652982426502182</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5912848012274958</v>
+        <v>0.8686392490432945</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae(reject)</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
     </row>
@@ -838,22 +838,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9698583027785969</v>
+        <v>0.9725352064935907</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00573265271502972</v>
+        <v>0.002441917419110475</v>
       </c>
       <c r="D12" t="n">
-        <v>5.683399310585973e-05</v>
+        <v>2.71164621485622e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0001226509869873537</v>
+        <v>0.0005852472558304224</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02422955952628039</v>
+        <v>0.02441051236931984</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9698583027785969</v>
+        <v>0.9725352064935907</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -869,26 +869,26 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25519.fa</t>
+          <t>even_MAG-GUT25307.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.760699198101994e-07</v>
+        <v>0.01030617296074688</v>
       </c>
       <c r="C13" t="n">
-        <v>5.278375667444267e-05</v>
+        <v>0.02169158087302328</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9974472440829751</v>
+        <v>0.9455187120162716</v>
       </c>
       <c r="E13" t="n">
-        <v>5.921586461185797e-05</v>
+        <v>0.02245209916188091</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002440480225818789</v>
+        <v>3.143498807730941e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9974472440829751</v>
+        <v>0.9455187120162716</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -904,26 +904,26 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25763.fa</t>
+          <t>even_MAG-GUT25519.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.59239360449048e-06</v>
+        <v>1.349357190623357e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01085585018358615</v>
+        <v>0.0001439699642442715</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9878748951406967</v>
+        <v>0.9975645894244369</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0012279693973213</v>
+        <v>0.0002198195476657654</v>
       </c>
       <c r="F14" t="n">
-        <v>3.769288479135493e-05</v>
+        <v>0.002070271706462377</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9878748951406967</v>
+        <v>0.9975645894244369</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -939,26 +939,26 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25961.fa</t>
+          <t>even_MAG-GUT25763.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.617226159553255e-06</v>
+        <v>2.434462845816261e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00283437986233251</v>
+        <v>0.008137127303088616</v>
       </c>
       <c r="D15" t="n">
-        <v>0.995558760047994</v>
+        <v>0.9916809555837908</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0007222134806190391</v>
+        <v>0.0001612319282364206</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0008750293828948038</v>
+        <v>1.825072203838399e-05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.995558760047994</v>
+        <v>0.9916809555837908</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -974,26 +974,26 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26205.fa</t>
+          <t>even_MAG-GUT25961.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.697980397075391e-06</v>
+        <v>1.255369580044465e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004267656353572568</v>
+        <v>0.001106174486540818</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9979922862046512</v>
+        <v>0.9958469762169715</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001524536676142641</v>
+        <v>0.000194502281124583</v>
       </c>
       <c r="F16" t="n">
-        <v>5.371350345200406e-05</v>
+        <v>0.002839793319562608</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9979922862046512</v>
+        <v>0.9958469762169715</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1009,26 +1009,26 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26303.fa</t>
+          <t>even_MAG-GUT26205.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.66463553120512e-06</v>
+        <v>1.140156071243722e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03763617777375667</v>
+        <v>9.511253202924563e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9619969397561359</v>
+        <v>0.996863177487896</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0003588545146967668</v>
+        <v>0.0006692166746751802</v>
       </c>
       <c r="F17" t="n">
-        <v>3.363319879505611e-06</v>
+        <v>0.002361091744687196</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9619969397561359</v>
+        <v>0.996863177487896</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1044,26 +1044,26 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26387.fa</t>
+          <t>even_MAG-GUT26303.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.91364722484595e-06</v>
+        <v>3.589674894052233e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002568826879830211</v>
+        <v>0.02385132877754294</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9956760526857888</v>
+        <v>0.9735381979498944</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0004701011827581655</v>
+        <v>0.002562813892033871</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001283105604397776</v>
+        <v>1.176263158832575e-05</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9956760526857888</v>
+        <v>0.9735381979498944</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1079,26 +1079,26 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26459.fa</t>
+          <t>even_MAG-GUT26387.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.38579941015197e-07</v>
+        <v>4.216740845170493e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01208542304727623</v>
+        <v>0.00083718957564184</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9868126385594628</v>
+        <v>0.9937703906637002</v>
       </c>
       <c r="E19" t="n">
-        <v>0.000703066549297403</v>
+        <v>0.0004385107890570834</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0003984332640226117</v>
+        <v>0.004949692230755626</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9868126385594628</v>
+        <v>0.9937703906637002</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1114,26 +1114,26 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26531.fa</t>
+          <t>even_MAG-GUT26459.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.773987950647791e-05</v>
+        <v>1.457188373576054e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001417511824900004</v>
+        <v>0.009375302119152737</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9971707120524841</v>
+        <v>0.9898646342314648</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001296115550546261</v>
+        <v>5.837681073922804e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>2.792069256310008e-05</v>
+        <v>0.0007002296502696908</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9971707120524841</v>
+        <v>0.9898646342314648</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1149,26 +1149,26 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26562.fa</t>
+          <t>even_MAG-GUT26531.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.002986999569001e-06</v>
+        <v>0.0001029183784240147</v>
       </c>
       <c r="C21" t="n">
-        <v>0.006841966210943439</v>
+        <v>0.0006029062212845606</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9918481588216943</v>
+        <v>0.9938206209018497</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0007310286580960564</v>
+        <v>0.005433813046141373</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0005778433222665372</v>
+        <v>3.974145230028608e-05</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9918481588216943</v>
+        <v>0.9938206209018497</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1184,61 +1184,61 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29414.fa</t>
+          <t>even_MAG-GUT26562.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.004189885432683726</v>
+        <v>7.972149592103528e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9868609379683796</v>
+        <v>0.003703212975199753</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00815976883571559</v>
+        <v>0.9952322625307439</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0007448501413453138</v>
+        <v>0.0003446790479766746</v>
       </c>
       <c r="F22" t="n">
-        <v>4.455762187590606e-05</v>
+        <v>0.0007118732964876741</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9868609379683796</v>
+        <v>0.9952322625307439</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29494.fa</t>
+          <t>even_MAG-GUT29414.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.002082372450801064</v>
+        <v>0.001350398826654917</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9941084485612485</v>
+        <v>0.9876814431796622</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002774317177862369</v>
+        <v>0.005163712084319599</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0006924515016774086</v>
+        <v>0.005789698169949614</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0003424103084107518</v>
+        <v>1.474773941365082e-05</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9941084485612485</v>
+        <v>0.9876814431796622</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1254,61 +1254,61 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31502.fa</t>
+          <t>even_MAG-GUT29494.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8767771917569049</v>
+        <v>0.0008283790051493955</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07123687103095028</v>
+        <v>0.9847890161797909</v>
       </c>
       <c r="D24" t="n">
-        <v>8.240937305071962e-05</v>
+        <v>0.003557951495684125</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002674076920554643</v>
+        <v>0.01076199800939103</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04922945091853947</v>
+        <v>6.265530998448124e-05</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8767771917569049</v>
+        <v>0.9847890161797909</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32356.fa</t>
+          <t>even_MAG-GUT31502.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9624291645098157</v>
+        <v>0.9759774457515197</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01340299637672042</v>
+        <v>0.006315254679689507</v>
       </c>
       <c r="D25" t="n">
-        <v>5.22744981029955e-05</v>
+        <v>1.851329085496406e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0002624974747884756</v>
+        <v>0.0005946423473214799</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02385306714057235</v>
+        <v>0.01709414393061445</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9624291645098157</v>
+        <v>0.9759774457515197</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1324,26 +1324,26 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32889.fa</t>
+          <t>even_MAG-GUT32356.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9561464528137631</v>
+        <v>0.9599803778159348</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02687037835447887</v>
+        <v>0.002459195390905691</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0002504151428562884</v>
+        <v>2.876957413263877e-05</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00080012602937056</v>
+        <v>0.001845266275771356</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01593262765953124</v>
+        <v>0.03568639094325538</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9561464528137631</v>
+        <v>0.9599803778159348</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1359,26 +1359,26 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32902.fa</t>
+          <t>even_MAG-GUT32889.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9053999490448488</v>
+        <v>0.9811948956645193</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08393537654930827</v>
+        <v>0.001875499961938742</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0001143253848133407</v>
+        <v>6.152162910012774e-05</v>
       </c>
       <c r="E27" t="n">
-        <v>0.000369620514186893</v>
+        <v>0.01018548228242826</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0101807285068426</v>
+        <v>0.006682600462013579</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9053999490448488</v>
+        <v>0.9811948956645193</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1394,61 +1394,61 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33244.fa</t>
+          <t>even_MAG-GUT32902.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02381829345755122</v>
+        <v>0.9741760358292587</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9666231915533665</v>
+        <v>0.01884451500710905</v>
       </c>
       <c r="D28" t="n">
-        <v>0.003180853015740844</v>
+        <v>1.694441548760726e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004798564897210479</v>
+        <v>0.0006908484724683689</v>
       </c>
       <c r="F28" t="n">
-        <v>0.001579097076131012</v>
+        <v>0.006271656275676216</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9666231915533665</v>
+        <v>0.9741760358292587</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33557.fa</t>
+          <t>even_MAG-GUT33244.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.003299539740086711</v>
+        <v>0.01306732437779783</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9940774291978851</v>
+        <v>0.9582605818441874</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001257171850359602</v>
+        <v>0.001517548551713235</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001357547813645653</v>
+        <v>0.02700910560136068</v>
       </c>
       <c r="F29" t="n">
-        <v>8.311398022818486e-06</v>
+        <v>0.0001454396249408097</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9940774291978851</v>
+        <v>0.9582605818441874</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1464,26 +1464,26 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33569.fa</t>
+          <t>even_MAG-GUT33557.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01398427649166287</v>
+        <v>0.001176818980714422</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9774041184745069</v>
+        <v>0.9950428314192208</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001078183637245139</v>
+        <v>0.0006272270922598481</v>
       </c>
       <c r="E30" t="n">
-        <v>0.007062390521552458</v>
+        <v>0.003143383551727021</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0004710308750323982</v>
+        <v>9.738956077909348e-06</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9774041184745069</v>
+        <v>0.9950428314192208</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1499,26 +1499,26 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34594.fa</t>
+          <t>even_MAG-GUT33569.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01676513836160166</v>
+        <v>0.03567031527356877</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9798774358890909</v>
+        <v>0.9389869972837408</v>
       </c>
       <c r="D31" t="n">
-        <v>0.002087675445951568</v>
+        <v>0.005598252802897101</v>
       </c>
       <c r="E31" t="n">
-        <v>0.00125102817454516</v>
+        <v>0.0195376357026041</v>
       </c>
       <c r="F31" t="n">
-        <v>1.872212881068233e-05</v>
+        <v>0.0002067989371892675</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9798774358890909</v>
+        <v>0.9389869972837408</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1534,26 +1534,26 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35198.fa</t>
+          <t>even_MAG-GUT34594.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.002567916215048313</v>
+        <v>0.001380608956681406</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9857253369900478</v>
+        <v>0.9757935158606874</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01033713253809053</v>
+        <v>0.005788488566949715</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0008677711784306732</v>
+        <v>0.01703079846506137</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0005018430783826917</v>
+        <v>6.588150620088456e-06</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9857253369900478</v>
+        <v>0.9757935158606874</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1569,26 +1569,26 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35271.fa</t>
+          <t>even_MAG-GUT35198.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0004796489572075698</v>
+        <v>0.0006359057161853082</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9898550590823519</v>
+        <v>0.9895776267364265</v>
       </c>
       <c r="D33" t="n">
-        <v>0.009032765093670155</v>
+        <v>0.005772136296499361</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0005755886664080353</v>
+        <v>0.003962394384488069</v>
       </c>
       <c r="F33" t="n">
-        <v>5.693820036240456e-05</v>
+        <v>5.193686640079739e-05</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9898550590823519</v>
+        <v>0.9895776267364265</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1604,96 +1604,96 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3531.fa</t>
+          <t>even_MAG-GUT35271.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0002586201191286583</v>
+        <v>0.0001389986491581949</v>
       </c>
       <c r="C34" t="n">
-        <v>0.006777411609532498</v>
+        <v>0.9870101661486684</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9927959625747891</v>
+        <v>0.008826010423246581</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0001676378714320377</v>
+        <v>0.004011556157841203</v>
       </c>
       <c r="F34" t="n">
-        <v>3.678251175256484e-07</v>
+        <v>1.326862108564937e-05</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9927959625747891</v>
+        <v>0.9870101661486684</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37024.fa</t>
+          <t>even_MAG-GUT3531.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0008859893350952273</v>
+        <v>0.001552514493762952</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9979972377793697</v>
+        <v>0.01122585547594711</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0007754744432022934</v>
+        <v>0.9837220020381451</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0002828497896448543</v>
+        <v>0.003494105858522595</v>
       </c>
       <c r="F35" t="n">
-        <v>5.844865268800451e-05</v>
+        <v>5.522133622305463e-06</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9979972377793697</v>
+        <v>0.9837220020381451</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38263.fa</t>
+          <t>even_MAG-GUT37024.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0009273393040889978</v>
+        <v>0.00280582051767583</v>
       </c>
       <c r="C36" t="n">
-        <v>0.998518399255702</v>
+        <v>0.9920322524680778</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0002418407896461192</v>
+        <v>0.001703184640040397</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0002997866380602344</v>
+        <v>0.003434432237382889</v>
       </c>
       <c r="F36" t="n">
-        <v>1.263401250280764e-05</v>
+        <v>2.431013682305553e-05</v>
       </c>
       <c r="G36" t="n">
-        <v>0.998518399255702</v>
+        <v>0.9920322524680778</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1709,26 +1709,26 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44688.fa</t>
+          <t>even_MAG-GUT38263.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.00183182597772485</v>
+        <v>0.000918913001171681</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9923182299748294</v>
+        <v>0.9979271873531416</v>
       </c>
       <c r="D37" t="n">
-        <v>0.004134887902776642</v>
+        <v>0.0004676958576030677</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0003879558134538229</v>
+        <v>0.0006671470560795822</v>
       </c>
       <c r="F37" t="n">
-        <v>0.001327100331215473</v>
+        <v>1.905673200402005e-05</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9923182299748294</v>
+        <v>0.9979271873531416</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1744,26 +1744,26 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45090.fa</t>
+          <t>even_MAG-GUT39108.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.001985847588509915</v>
+        <v>0.006860507919524268</v>
       </c>
       <c r="C38" t="n">
-        <v>0.05652028864442168</v>
+        <v>0.00154769470067013</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9355347902327439</v>
+        <v>0.9779538341946395</v>
       </c>
       <c r="E38" t="n">
-        <v>0.005958145346473626</v>
+        <v>0.003731552551581182</v>
       </c>
       <c r="F38" t="n">
-        <v>9.281878509221802e-07</v>
+        <v>0.009906410633584793</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9355347902327439</v>
+        <v>0.9779538341946395</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1779,26 +1779,26 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5486.fa</t>
+          <t>even_MAG-GUT44688.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.00246077184032961</v>
+        <v>0.004889800977386813</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9950457355079999</v>
+        <v>0.9887747049575589</v>
       </c>
       <c r="D39" t="n">
-        <v>0.002209555139498603</v>
+        <v>0.001361351162406525</v>
       </c>
       <c r="E39" t="n">
-        <v>6.983022505856345e-05</v>
+        <v>0.004433007713517761</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0002141072871132834</v>
+        <v>0.0005411351891300176</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9950457355079999</v>
+        <v>0.9887747049575589</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1814,61 +1814,61 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57392.fa</t>
+          <t>even_MAG-GUT45090.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.002159029885746172</v>
+        <v>7.688667264882253e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9878903420137604</v>
+        <v>0.1095571651046203</v>
       </c>
       <c r="D40" t="n">
-        <v>0.002412551367221826</v>
+        <v>0.8877201995824991</v>
       </c>
       <c r="E40" t="n">
-        <v>0.007498633379122951</v>
+        <v>0.002645591010534549</v>
       </c>
       <c r="F40" t="n">
-        <v>3.944335414862151e-05</v>
+        <v>1.576296971806159e-07</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9878903420137604</v>
+        <v>0.8877201995824991</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57492.fa</t>
+          <t>even_MAG-GUT5486.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.00266040207270897</v>
+        <v>0.001680090188255484</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9873996845456635</v>
+        <v>0.989482213013599</v>
       </c>
       <c r="D41" t="n">
-        <v>0.006542727855050706</v>
+        <v>0.007096830207992686</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001050151678503208</v>
+        <v>0.00154393919622773</v>
       </c>
       <c r="F41" t="n">
-        <v>0.002347033848073653</v>
+        <v>0.0001969273939252374</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9873996845456635</v>
+        <v>0.989482213013599</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1884,166 +1884,166 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57819.fa</t>
+          <t>even_MAG-GUT57392.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.178247603222651e-06</v>
+        <v>4.858140420185047e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>0.002658283362641456</v>
+        <v>0.9546229295501734</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9959468750886875</v>
+        <v>0.001212839116011625</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001081910142631324</v>
+        <v>0.04411497946410674</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0003107531584363522</v>
+        <v>6.704655062176379e-07</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9959468750886875</v>
+        <v>0.9546229295501734</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59296.fa</t>
+          <t>even_MAG-GUT57492.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.529254101869519e-06</v>
+        <v>0.002796473966837702</v>
       </c>
       <c r="C43" t="n">
-        <v>0.001507555759505754</v>
+        <v>0.9866334465462425</v>
       </c>
       <c r="D43" t="n">
-        <v>0.99740985801098</v>
+        <v>0.003154064074177005</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0009645700129993466</v>
+        <v>0.006886611794388812</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0001164869624130312</v>
+        <v>0.00052940361835384</v>
       </c>
       <c r="G43" t="n">
-        <v>0.99740985801098</v>
+        <v>0.9866334465462425</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59532.fa</t>
+          <t>even_MAG-GUT57819.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.009591741992595094</v>
+        <v>1.478822294361507e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9882737572258692</v>
+        <v>0.0008814195196380656</v>
       </c>
       <c r="D44" t="n">
-        <v>0.001538301946389484</v>
+        <v>0.9969963500373564</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0004485641758128922</v>
+        <v>0.000876400269792986</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0001476346593333011</v>
+        <v>0.001231041950269009</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9882737572258692</v>
+        <v>0.9969963500373564</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59561.fa</t>
+          <t>even_MAG-GUT59296.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.001120383160861506</v>
+        <v>2.823039316047746e-06</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9973283784358448</v>
+        <v>0.0006536757526423396</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0001875148284114919</v>
+        <v>0.9978637059381624</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0009430550644042969</v>
+        <v>0.001091837095881474</v>
       </c>
       <c r="F45" t="n">
-        <v>0.000420668510477956</v>
+        <v>0.0003879581739975811</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9973283784358448</v>
+        <v>0.9978637059381624</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59569.fa</t>
+          <t>even_MAG-GUT59532.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.06061468999325861</v>
+        <v>0.005232345170050437</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9265151873506571</v>
+        <v>0.9762429210504167</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0001404612322376977</v>
+        <v>0.002041303565435989</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01264378848652634</v>
+        <v>0.0164387236287315</v>
       </c>
       <c r="F46" t="n">
-        <v>8.587293732028232e-05</v>
+        <v>4.470658536550643e-05</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9265151873506571</v>
+        <v>0.9762429210504167</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2059,26 +2059,26 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61666.fa</t>
+          <t>even_MAG-GUT59561.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.04416895640328601</v>
+        <v>0.001316648032370727</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9278774082113432</v>
+        <v>0.9946727825534755</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01402431506635337</v>
+        <v>0.0002150946216196122</v>
       </c>
       <c r="E47" t="n">
-        <v>0.001729891333294682</v>
+        <v>0.003740855932441828</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01219942898572276</v>
+        <v>5.46188600922575e-05</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9278774082113432</v>
+        <v>0.9946727825534755</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2094,96 +2094,96 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62293.fa</t>
+          <t>even_MAG-GUT59569.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4.430438874484944e-06</v>
+        <v>0.07327616436067293</v>
       </c>
       <c r="C48" t="n">
-        <v>0.001264351708155692</v>
+        <v>0.8957186146938354</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9958041507066195</v>
+        <v>0.0004638915016833043</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001355946712329697</v>
+        <v>0.03047431489555059</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001571120434020663</v>
+        <v>6.70145482577747e-05</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9958041507066195</v>
+        <v>0.8957186146938354</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68598.fa</t>
+          <t>even_MAG-GUT61666.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0002020402939431</v>
+        <v>0.01958491355798631</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01200254584633106</v>
+        <v>0.9078407642452647</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9877831371676333</v>
+        <v>0.04336068803622221</v>
       </c>
       <c r="E49" t="n">
-        <v>1.226787977303399e-05</v>
+        <v>0.02613132165773881</v>
       </c>
       <c r="F49" t="n">
-        <v>8.812319637377313e-09</v>
+        <v>0.003082312502788055</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9877831371676333</v>
+        <v>0.9078407642452647</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80819.fa</t>
+          <t>even_MAG-GUT62293.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.431951484691128e-05</v>
+        <v>7.953331924237001e-06</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1052097104430311</v>
+        <v>0.0002599811193031174</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8947472900841518</v>
+        <v>0.9934659099535597</v>
       </c>
       <c r="E50" t="n">
-        <v>1.437479324571038e-05</v>
+        <v>0.0003078165548074268</v>
       </c>
       <c r="F50" t="n">
-        <v>1.430516472440982e-05</v>
+        <v>0.005958339040405596</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8947472900841518</v>
+        <v>0.9934659099535597</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2199,26 +2199,26 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82008.fa</t>
+          <t>even_MAG-GUT68598.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.002783376441010692</v>
+        <v>0.009025621236243848</v>
       </c>
       <c r="C51" t="n">
-        <v>0.004964982136554211</v>
+        <v>0.01614433210308792</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9885544823410618</v>
+        <v>0.9744231651895283</v>
       </c>
       <c r="E51" t="n">
-        <v>0.003696603606619285</v>
+        <v>0.0003936387507735445</v>
       </c>
       <c r="F51" t="n">
-        <v>5.55474754050896e-07</v>
+        <v>1.324272036639603e-05</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9885544823410618</v>
+        <v>0.9744231651895283</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2234,61 +2234,61 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85133.fa</t>
+          <t>even_MAG-GUT80819.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.005860940374336668</v>
+        <v>6.538999769674307e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9817894686478843</v>
+        <v>0.0448694563659477</v>
       </c>
       <c r="D52" t="n">
-        <v>0.002241383326795125</v>
+        <v>0.9548715647855455</v>
       </c>
       <c r="E52" t="n">
-        <v>0.003814827481375929</v>
+        <v>0.0001707873995905836</v>
       </c>
       <c r="F52" t="n">
-        <v>0.006293380169607949</v>
+        <v>2.280145121954773e-05</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9817894686478843</v>
+        <v>0.9548715647855455</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8776.fa</t>
+          <t>even_MAG-GUT82008.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.344640267242467e-06</v>
+        <v>0.0002696162992965021</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0007939667482383714</v>
+        <v>0.009916627324146552</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9966042702698115</v>
+        <v>0.9869261201070886</v>
       </c>
       <c r="E53" t="n">
-        <v>0.000541369872117839</v>
+        <v>0.002887590408509715</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002059048469565175</v>
+        <v>4.586095859329033e-08</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9966042702698115</v>
+        <v>0.9869261201070886</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2304,138 +2304,208 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89959.fa</t>
+          <t>even_MAG-GUT85133.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9958043567857648</v>
+        <v>0.003816618954074236</v>
       </c>
       <c r="C54" t="n">
-        <v>0.001403631537568395</v>
+        <v>0.9693361287538378</v>
       </c>
       <c r="D54" t="n">
-        <v>0.002624559228339927</v>
+        <v>0.006017026642627561</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0001443241202371499</v>
+        <v>0.02012540716731216</v>
       </c>
       <c r="F54" t="n">
-        <v>2.312832808977899e-05</v>
+        <v>0.0007048184821480753</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9958043567857648</v>
+        <v>0.9693361287538378</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90583.fa</t>
+          <t>even_MAG-GUT8776.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9966302188738951</v>
+        <v>2.904086345632904e-06</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0003017374172495549</v>
+        <v>0.0003712523796169981</v>
       </c>
       <c r="D55" t="n">
-        <v>0.002919160363026219</v>
+        <v>0.9962487457393636</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0001329962106532986</v>
+        <v>0.0001095634442293814</v>
       </c>
       <c r="F55" t="n">
-        <v>1.58871351758916e-05</v>
+        <v>0.003267534350444357</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9966302188738951</v>
+        <v>0.9962487457393636</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9228.fa</t>
+          <t>even_MAG-GUT89959.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4.252728585847043e-07</v>
+        <v>0.996037786995626</v>
       </c>
       <c r="C56" t="n">
-        <v>0.003258143924131118</v>
+        <v>0.002224120727587026</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9962012103910313</v>
+        <v>0.0009170190797434917</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0002868749006263344</v>
+        <v>0.0007009994397822129</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0002533455113527115</v>
+        <v>0.0001200737572613363</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9962012103910313</v>
+        <v>0.996037786995626</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT90583.fa</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.9974093239798631</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0005563793673998055</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0007586836298314064</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.001039475271884466</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0002361377510210851</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.9974093239798631</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>f__Atopobiaceae</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>f__Atopobiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9228.fa</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1.9073608969504e-06</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.00128864543149432</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.993931788351361</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0001383969420944585</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.004639261914153398</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.993931788351361</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9760.fa</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>0.9314852934427975</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.06701167634006859</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1.10214534814225e-05</v>
-      </c>
-      <c r="E57" t="n">
-        <v>6.141621733427942e-05</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.001430592546318061</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.9314852934427975</v>
-      </c>
-      <c r="H57" t="inlineStr">
+      <c r="B59" t="n">
+        <v>0.9823944431028062</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.01141444446794107</v>
+      </c>
+      <c r="D59" t="n">
+        <v>8.149767768038911e-06</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0002307756602737973</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.005952187001210908</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.9823944431028062</v>
+      </c>
+      <c r="H59" t="inlineStr">
         <is>
           <t>f__Atopobiaceae</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>f__Atopobiaceae</t>
         </is>

--- a/outputs-HGR-r202/o__Coriobacteriales.xlsx
+++ b/outputs-HGR-r202/o__Coriobacteriales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -535,6 +545,11 @@
           <t>f__Coriobacteriaceae</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -565,6 +580,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -595,6 +615,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -625,6 +650,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -655,6 +685,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -685,6 +720,11 @@
           <t>f__Coriobacteriaceae</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -715,6 +755,11 @@
           <t>f__Atopobiaceae</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>f__Atopobiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -745,6 +790,11 @@
           <t>f__Atopobiaceae</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>f__Atopobiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -775,6 +825,11 @@
           <t>f__Atopobiaceae</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>f__Atopobiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -805,6 +860,11 @@
           <t>f__Atopobiaceae</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>f__Atopobiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -835,6 +895,11 @@
           <t>f__Atopobiaceae</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>f__Atopobiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -865,6 +930,11 @@
           <t>f__Atopobiaceae</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>f__Atopobiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -895,6 +965,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -925,6 +1000,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -955,6 +1035,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -985,6 +1070,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1015,6 +1105,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1045,6 +1140,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1075,6 +1175,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1105,6 +1210,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1135,6 +1245,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1165,6 +1280,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1195,6 +1315,11 @@
           <t>f__Coriobacteriaceae</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1225,6 +1350,11 @@
           <t>f__Coriobacteriaceae</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1255,6 +1385,11 @@
           <t>f__Atopobiaceae</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>f__Atopobiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1285,6 +1420,11 @@
           <t>f__Atopobiaceae</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>f__Atopobiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1315,6 +1455,11 @@
           <t>f__Atopobiaceae</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>f__Atopobiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1345,6 +1490,11 @@
           <t>f__Atopobiaceae</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>f__Atopobiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1375,6 +1525,11 @@
           <t>f__Coriobacteriaceae</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1405,6 +1560,11 @@
           <t>f__Coriobacteriaceae</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1435,6 +1595,11 @@
           <t>f__Coriobacteriaceae</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1465,6 +1630,11 @@
           <t>f__Coriobacteriaceae</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1495,6 +1665,11 @@
           <t>f__Coriobacteriaceae</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1525,6 +1700,11 @@
           <t>f__Coriobacteriaceae</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1555,6 +1735,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1585,6 +1770,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1615,6 +1805,11 @@
           <t>f__Coriobacteriaceae</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1645,6 +1840,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1675,6 +1875,11 @@
           <t>f__Coriobacteriaceae</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1705,6 +1910,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1735,6 +1945,11 @@
           <t>f__Coriobacteriaceae</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1765,6 +1980,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1795,6 +2015,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1825,6 +2050,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1855,6 +2085,11 @@
           <t>f__Coriobacteriaceae</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1885,6 +2120,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1915,6 +2155,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1945,6 +2190,11 @@
           <t>f__Coriobacteriaceae</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1975,6 +2225,11 @@
           <t>f__Coriobacteriaceae</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2005,6 +2260,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2035,6 +2295,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2065,6 +2330,11 @@
           <t>f__Coriobacteriaceae</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2095,6 +2365,11 @@
           <t>f__Coriobacteriaceae</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2125,6 +2400,11 @@
           <t>f__Coriobacteriaceae</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2155,6 +2435,11 @@
           <t>f__Coriobacteriaceae</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2185,6 +2470,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2215,6 +2505,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2245,6 +2540,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2275,6 +2575,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2305,6 +2610,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2335,6 +2645,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2365,6 +2680,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2395,6 +2715,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2425,6 +2750,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2455,6 +2785,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2485,6 +2820,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2515,6 +2855,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2545,6 +2890,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2575,6 +2925,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2605,6 +2960,11 @@
           <t>f__Coriobacteriaceae</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -2635,6 +2995,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2665,6 +3030,11 @@
           <t>f__Atopobiaceae</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>f__Atopobiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2695,6 +3065,11 @@
           <t>f__Atopobiaceae</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>f__Atopobiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2725,6 +3100,11 @@
           <t>f__UMGS124</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>f__UMGS124</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2755,6 +3135,11 @@
           <t>f__Eggerthellaceae</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2781,6 +3166,11 @@
         <v>0.9823944431028062</v>
       </c>
       <c r="H78" t="inlineStr">
+        <is>
+          <t>f__Atopobiaceae</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>f__Atopobiaceae</t>
         </is>

--- a/outputs-HGR-r202/o__Coriobacteriales.xlsx
+++ b/outputs-HGR-r202/o__Coriobacteriales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,166 +554,166 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11934.fa</t>
+          <t>even_MAG-GUT11526.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.688876596788337e-05</v>
+        <v>0.0004356019468718935</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00118109727489978</v>
+        <v>0.9518291363271376</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9949332948933448</v>
+        <v>0.03235710983655823</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002813644277062649</v>
+        <v>0.01532502051854165</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00105507478872482</v>
+        <v>5.313137089062449e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9949332948933448</v>
+        <v>0.9518291363271376</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1389.fa</t>
+          <t>even_MAG-GUT12393.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.801719894482918e-05</v>
+        <v>0.0002288637948866141</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001288832908490581</v>
+        <v>0.8789099318110202</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9970179967785181</v>
+        <v>0.1007220214161671</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001665129035724097</v>
+        <v>0.02013605301933019</v>
       </c>
       <c r="F5" t="n">
-        <v>1.002407832247913e-05</v>
+        <v>3.129958596054654e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9970179967785181</v>
+        <v>0.8789099318110202</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15625.fa</t>
+          <t>even_MAG-GUT12533.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.144736993281059</v>
+        <v>0.002190748259641479</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0167352636157058</v>
+        <v>0.8746880397648203</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8282232780479847</v>
+        <v>0.1066334551465594</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01026229241155307</v>
+        <v>0.0164849882123434</v>
       </c>
       <c r="F6" t="n">
-        <v>4.217264369760293e-05</v>
+        <v>2.768616635407255e-06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8282232780479847</v>
+        <v>0.8746880397648203</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15850.fa</t>
+          <t>even_MAG-GUT12691.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.973311653958346e-05</v>
+        <v>0.0002723730046334963</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01295411797979594</v>
+        <v>0.7510616767917738</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9864861265261461</v>
+        <v>0.2182336118072542</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0005189401009150481</v>
+        <v>0.03042661428091198</v>
       </c>
       <c r="F7" t="n">
-        <v>1.108227660325427e-05</v>
+        <v>5.724115426600063e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9864861265261461</v>
+        <v>0.7510616767917738</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15909.fa</t>
+          <t>even_MAG-GUT13333.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003722736057764961</v>
+        <v>0.0006034051605815257</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9955536732897441</v>
+        <v>0.6865473929987608</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0006851936056629353</v>
+        <v>0.2563350861988503</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003368638493127601</v>
+        <v>0.05650913982394618</v>
       </c>
       <c r="F8" t="n">
-        <v>2.022100568886245e-05</v>
+        <v>4.975817861200378e-06</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9955536732897441</v>
+        <v>0.6865473929987608</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -722,278 +722,278 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Coriobacteriaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17247.fa</t>
+          <t>even_MAG-GUT13881.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9291832291625971</v>
+        <v>0.4140085123456513</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06684165460805601</v>
+        <v>0.02304835751018332</v>
       </c>
       <c r="D9" t="n">
-        <v>4.949616756213162e-06</v>
+        <v>0.5498733314012407</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0008279084526723067</v>
+        <v>0.01203830243747977</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003142258159918307</v>
+        <v>0.001031496305445089</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9291832291625971</v>
+        <v>0.5498733314012407</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Eggerthellaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18429.fa</t>
+          <t>even_MAG-GUT1389.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9929416795116703</v>
+        <v>1.801719894482918e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001783889891535719</v>
+        <v>0.001288832908490581</v>
       </c>
       <c r="D10" t="n">
-        <v>5.223468434397454e-06</v>
+        <v>0.9970179967785181</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004487752298067537</v>
+        <v>0.001665129035724097</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0007814548302920349</v>
+        <v>1.002407832247913e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9929416795116703</v>
+        <v>0.9970179967785181</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1975.fa</t>
+          <t>even_MAG-GUT14250.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9794226646973487</v>
+        <v>0.1653429027391696</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005786032420307777</v>
+        <v>0.01645191452453109</v>
       </c>
       <c r="D11" t="n">
-        <v>2.566397081736578e-05</v>
+        <v>0.8139621260364043</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001317121611499313</v>
+        <v>0.004163724046034763</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01344851730002696</v>
+        <v>7.93326538601438e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9794226646973487</v>
+        <v>0.8139621260364043</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1986.fa</t>
+          <t>even_MAG-GUT151.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9505911865027058</v>
+        <v>0.0001923876143270991</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0007823384316065881</v>
+        <v>0.9367026859437927</v>
       </c>
       <c r="D12" t="n">
-        <v>5.217016793191984e-06</v>
+        <v>0.04398242342904272</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001934612703144438</v>
+        <v>0.01912169731618286</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04668664534575008</v>
+        <v>8.056966547552998e-07</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9505911865027058</v>
+        <v>0.9367026859437927</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21962.fa</t>
+          <t>even_MAG-GUT15625.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8686392490432945</v>
+        <v>0.144736993281059</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1275124925154283</v>
+        <v>0.0167352636157058</v>
       </c>
       <c r="D13" t="n">
-        <v>4.432030215823644e-05</v>
+        <v>0.8282232780479847</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002150955712616848</v>
+        <v>0.01026229241155307</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001652982426502182</v>
+        <v>4.217264369760293e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8686392490432945</v>
+        <v>0.8282232780479847</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23753.fa</t>
+          <t>even_MAG-GUT15850.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9725352064935907</v>
+        <v>2.973311653958346e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002441917419110475</v>
+        <v>0.01295411797979594</v>
       </c>
       <c r="D14" t="n">
-        <v>2.71164621485622e-05</v>
+        <v>0.9864861265261461</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0005852472558304224</v>
+        <v>0.0005189401009150481</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02441051236931984</v>
+        <v>1.108227660325427e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9725352064935907</v>
+        <v>0.9864861265261461</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25307.fa</t>
+          <t>even_MAG-GUT15909.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01030617296074688</v>
+        <v>0.0003722736057764961</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02169158087302328</v>
+        <v>0.9955536732897441</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9455187120162716</v>
+        <v>0.0006851936056629353</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02245209916188091</v>
+        <v>0.003368638493127601</v>
       </c>
       <c r="F15" t="n">
-        <v>3.143498807730941e-05</v>
+        <v>2.022100568886245e-05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9455187120162716</v>
+        <v>0.9955536732897441</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25519.fa</t>
+          <t>even_MAG-GUT16149.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.349357190623357e-06</v>
+        <v>0.04169168832147809</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001439699642442715</v>
+        <v>0.08914985947923898</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9975645894244369</v>
+        <v>0.8345233702577037</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0002198195476657654</v>
+        <v>0.01674431363137878</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002070271706462377</v>
+        <v>0.01789076831020039</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9975645894244369</v>
+        <v>0.8345233702577037</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1009,131 +1009,131 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25763.fa</t>
+          <t>even_MAG-GUT16851.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.434462845816261e-06</v>
+        <v>0.0002342264044224941</v>
       </c>
       <c r="C17" t="n">
-        <v>0.008137127303088616</v>
+        <v>0.7629939248100923</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9916809555837908</v>
+        <v>0.2248976276631862</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0001612319282364206</v>
+        <v>0.01187080695020535</v>
       </c>
       <c r="F17" t="n">
-        <v>1.825072203838399e-05</v>
+        <v>3.41417209379521e-06</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9916809555837908</v>
+        <v>0.7629939248100923</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25961.fa</t>
+          <t>even_MAG-GUT17247.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.255369580044465e-05</v>
+        <v>0.9291832291625971</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001106174486540818</v>
+        <v>0.06684165460805601</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9958469762169715</v>
+        <v>4.949616756213162e-06</v>
       </c>
       <c r="E18" t="n">
-        <v>0.000194502281124583</v>
+        <v>0.0008279084526723067</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002839793319562608</v>
+        <v>0.003142258159918307</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9958469762169715</v>
+        <v>0.9291832291625971</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26205.fa</t>
+          <t>even_MAG-GUT17705.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.140156071243722e-05</v>
+        <v>0.001040358267050555</v>
       </c>
       <c r="C19" t="n">
-        <v>9.511253202924563e-05</v>
+        <v>0.9616222289590738</v>
       </c>
       <c r="D19" t="n">
-        <v>0.996863177487896</v>
+        <v>0.0286838104044876</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0006692166746751802</v>
+        <v>0.008640703651348244</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002361091744687196</v>
+        <v>1.289871803977776e-05</v>
       </c>
       <c r="G19" t="n">
-        <v>0.996863177487896</v>
+        <v>0.9616222289590738</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26303.fa</t>
+          <t>even_MAG-GUT18195.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.589674894052233e-05</v>
+        <v>0.1349658732854049</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02385132877754294</v>
+        <v>0.006553010392745836</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9735381979498944</v>
+        <v>0.8541654372887195</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002562813892033871</v>
+        <v>0.00414657882354173</v>
       </c>
       <c r="F20" t="n">
-        <v>1.176263158832575e-05</v>
+        <v>0.0001691002095879471</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9735381979498944</v>
+        <v>0.8541654372887195</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1149,166 +1149,166 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26387.fa</t>
+          <t>even_MAG-GUT18429.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.216740845170493e-06</v>
+        <v>0.9929416795116703</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00083718957564184</v>
+        <v>0.001783889891535719</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9937703906637002</v>
+        <v>5.223468434397454e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0004385107890570834</v>
+        <v>0.004487752298067537</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004949692230755626</v>
+        <v>0.0007814548302920349</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9937703906637002</v>
+        <v>0.9929416795116703</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26459.fa</t>
+          <t>even_MAG-GUT1975.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.457188373576054e-06</v>
+        <v>0.9794226646973487</v>
       </c>
       <c r="C22" t="n">
-        <v>0.009375302119152737</v>
+        <v>0.005786032420307777</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9898646342314648</v>
+        <v>2.566397081736578e-05</v>
       </c>
       <c r="E22" t="n">
-        <v>5.837681073922804e-05</v>
+        <v>0.001317121611499313</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0007002296502696908</v>
+        <v>0.01344851730002696</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9898646342314648</v>
+        <v>0.9794226646973487</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26531.fa</t>
+          <t>even_MAG-GUT1986.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0001029183784240147</v>
+        <v>0.9505911865027058</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0006029062212845606</v>
+        <v>0.0007823384316065881</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9938206209018497</v>
+        <v>5.217016793191984e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>0.005433813046141373</v>
+        <v>0.001934612703144438</v>
       </c>
       <c r="F23" t="n">
-        <v>3.974145230028608e-05</v>
+        <v>0.04668664534575008</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9938206209018497</v>
+        <v>0.9505911865027058</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26562.fa</t>
+          <t>even_MAG-GUT21962.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.972149592103528e-06</v>
+        <v>0.8686392490432945</v>
       </c>
       <c r="C24" t="n">
-        <v>0.003703212975199753</v>
+        <v>0.1275124925154283</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9952322625307439</v>
+        <v>4.432030215823644e-05</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0003446790479766746</v>
+        <v>0.002150955712616848</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0007118732964876741</v>
+        <v>0.001652982426502182</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9952322625307439</v>
+        <v>0.8686392490432945</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29414.fa</t>
+          <t>even_MAG-GUT22751.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.001350398826654917</v>
+        <v>0.0006965255250983389</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9876814431796622</v>
+        <v>0.9532036247968204</v>
       </c>
       <c r="D25" t="n">
-        <v>0.005163712084319599</v>
+        <v>0.02881036450323009</v>
       </c>
       <c r="E25" t="n">
-        <v>0.005789698169949614</v>
+        <v>0.01728079179099455</v>
       </c>
       <c r="F25" t="n">
-        <v>1.474773941365082e-05</v>
+        <v>8.693383856586456e-06</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9876814431796622</v>
+        <v>0.9532036247968204</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1324,411 +1324,411 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29494.fa</t>
+          <t>even_MAG-GUT23753.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0008283790051493955</v>
+        <v>0.9725352064935907</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9847890161797909</v>
+        <v>0.002441917419110475</v>
       </c>
       <c r="D26" t="n">
-        <v>0.003557951495684125</v>
+        <v>2.71164621485622e-05</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01076199800939103</v>
+        <v>0.0005852472558304224</v>
       </c>
       <c r="F26" t="n">
-        <v>6.265530998448124e-05</v>
+        <v>0.02441051236931984</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9847890161797909</v>
+        <v>0.9725352064935907</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31502.fa</t>
+          <t>even_MAG-GUT23967.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9759774457515197</v>
+        <v>0.002558387650987295</v>
       </c>
       <c r="C27" t="n">
-        <v>0.006315254679689507</v>
+        <v>0.9488988390789138</v>
       </c>
       <c r="D27" t="n">
-        <v>1.851329085496406e-05</v>
+        <v>0.0347309095555684</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0005946423473214799</v>
+        <v>0.01371638078859818</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01709414393061445</v>
+        <v>9.548292593221451e-05</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9759774457515197</v>
+        <v>0.9488988390789138</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32356.fa</t>
+          <t>even_MAG-GUT25075.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9599803778159348</v>
+        <v>0.1550171183665443</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002459195390905691</v>
+        <v>0.002841409775577679</v>
       </c>
       <c r="D28" t="n">
-        <v>2.876957413263877e-05</v>
+        <v>0.8382288470848676</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001845266275771356</v>
+        <v>0.003866714895504172</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03568639094325538</v>
+        <v>4.590987750628882e-05</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9599803778159348</v>
+        <v>0.8382288470848676</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32889.fa</t>
+          <t>even_MAG-GUT25519.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9811948956645193</v>
+        <v>1.349357190623357e-06</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001875499961938742</v>
+        <v>0.0001439699642442715</v>
       </c>
       <c r="D29" t="n">
-        <v>6.152162910012774e-05</v>
+        <v>0.9975645894244369</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01018548228242826</v>
+        <v>0.0002198195476657654</v>
       </c>
       <c r="F29" t="n">
-        <v>0.006682600462013579</v>
+        <v>0.002070271706462377</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9811948956645193</v>
+        <v>0.9975645894244369</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32902.fa</t>
+          <t>even_MAG-GUT25763.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9741760358292587</v>
+        <v>2.434462845816261e-06</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01884451500710905</v>
+        <v>0.008137127303088616</v>
       </c>
       <c r="D30" t="n">
-        <v>1.694441548760726e-05</v>
+        <v>0.9916809555837908</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0006908484724683689</v>
+        <v>0.0001612319282364206</v>
       </c>
       <c r="F30" t="n">
-        <v>0.006271656275676216</v>
+        <v>1.825072203838399e-05</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9741760358292587</v>
+        <v>0.9916809555837908</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33244.fa</t>
+          <t>even_MAG-GUT25961.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01306732437779783</v>
+        <v>1.255369580044465e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9582605818441874</v>
+        <v>0.001106174486540818</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001517548551713235</v>
+        <v>0.9958469762169715</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02700910560136068</v>
+        <v>0.000194502281124583</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0001454396249408097</v>
+        <v>0.002839793319562608</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9582605818441874</v>
+        <v>0.9958469762169715</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33557.fa</t>
+          <t>even_MAG-GUT26205.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.001176818980714422</v>
+        <v>1.140156071243722e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9950428314192208</v>
+        <v>9.511253202924563e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0006272270922598481</v>
+        <v>0.996863177487896</v>
       </c>
       <c r="E32" t="n">
-        <v>0.003143383551727021</v>
+        <v>0.0006692166746751802</v>
       </c>
       <c r="F32" t="n">
-        <v>9.738956077909348e-06</v>
+        <v>0.002361091744687196</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9950428314192208</v>
+        <v>0.996863177487896</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33569.fa</t>
+          <t>even_MAG-GUT26303.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.03567031527356877</v>
+        <v>3.589674894052233e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9389869972837408</v>
+        <v>0.02385132877754294</v>
       </c>
       <c r="D33" t="n">
-        <v>0.005598252802897101</v>
+        <v>0.9735381979498944</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0195376357026041</v>
+        <v>0.002562813892033871</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0002067989371892675</v>
+        <v>1.176263158832575e-05</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9389869972837408</v>
+        <v>0.9735381979498944</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34594.fa</t>
+          <t>even_MAG-GUT26387.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.001380608956681406</v>
+        <v>4.216740845170493e-06</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9757935158606874</v>
+        <v>0.00083718957564184</v>
       </c>
       <c r="D34" t="n">
-        <v>0.005788488566949715</v>
+        <v>0.9937703906637002</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01703079846506137</v>
+        <v>0.0004385107890570834</v>
       </c>
       <c r="F34" t="n">
-        <v>6.588150620088456e-06</v>
+        <v>0.004949692230755626</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9757935158606874</v>
+        <v>0.9937703906637002</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35198.fa</t>
+          <t>even_MAG-GUT26459.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0006359057161853082</v>
+        <v>1.457188373576054e-06</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9895776267364265</v>
+        <v>0.009375302119152737</v>
       </c>
       <c r="D35" t="n">
-        <v>0.005772136296499361</v>
+        <v>0.9898646342314648</v>
       </c>
       <c r="E35" t="n">
-        <v>0.003962394384488069</v>
+        <v>5.837681073922804e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>5.193686640079739e-05</v>
+        <v>0.0007002296502696908</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9895776267364265</v>
+        <v>0.9898646342314648</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35271.fa</t>
+          <t>even_MAG-GUT26531.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0001389986491581949</v>
+        <v>0.0001029183784240147</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9870101661486684</v>
+        <v>0.0006029062212845606</v>
       </c>
       <c r="D36" t="n">
-        <v>0.008826010423246581</v>
+        <v>0.9938206209018497</v>
       </c>
       <c r="E36" t="n">
-        <v>0.004011556157841203</v>
+        <v>0.005433813046141373</v>
       </c>
       <c r="F36" t="n">
-        <v>1.326862108564937e-05</v>
+        <v>3.974145230028608e-05</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9870101661486684</v>
+        <v>0.9938206209018497</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3531.fa</t>
+          <t>even_MAG-GUT26562.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.001552514493762952</v>
+        <v>7.972149592103528e-06</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01122585547594711</v>
+        <v>0.003703212975199753</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9837220020381451</v>
+        <v>0.9952322625307439</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003494105858522595</v>
+        <v>0.0003446790479766746</v>
       </c>
       <c r="F37" t="n">
-        <v>5.522133622305463e-06</v>
+        <v>0.0007118732964876741</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9837220020381451</v>
+        <v>0.9952322625307439</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1744,61 +1744,61 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36138.fa</t>
+          <t>even_MAG-GUT2660.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.005438885335601519</v>
+        <v>7.19665979445538e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01052962977188251</v>
+        <v>0.8603530502084731</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9671118741073751</v>
+        <v>0.1359132252249834</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01374536549255507</v>
+        <v>0.003660710625935657</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003174245292585818</v>
+        <v>1.047342663287256e-06</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9671118741073751</v>
+        <v>0.8603530502084731</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37024.fa</t>
+          <t>even_MAG-GUT26803.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.00280582051767583</v>
+        <v>0.001399027383120359</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9920322524680778</v>
+        <v>0.5663640275005356</v>
       </c>
       <c r="D39" t="n">
-        <v>0.001703184640040397</v>
+        <v>0.4229902466505014</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003434432237382889</v>
+        <v>0.009215023321607499</v>
       </c>
       <c r="F39" t="n">
-        <v>2.431013682305553e-05</v>
+        <v>3.167514423526852e-05</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9920322524680778</v>
+        <v>0.5663640275005356</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1807,68 +1807,68 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Coriobacteriaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37090.fa</t>
+          <t>even_MAG-GUT2783.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.678784496332283e-06</v>
+        <v>0.0002267309792501312</v>
       </c>
       <c r="C40" t="n">
-        <v>0.001342994064164754</v>
+        <v>0.8834584482737494</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9879554850753363</v>
+        <v>0.1039675374134506</v>
       </c>
       <c r="E40" t="n">
-        <v>0.006364625624741747</v>
+        <v>0.01234669175023199</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004330216451260984</v>
+        <v>5.91583317940462e-07</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9879554850753363</v>
+        <v>0.8834584482737494</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38263.fa</t>
+          <t>even_MAG-GUT29414.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.000918913001171681</v>
+        <v>0.001350398826654917</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9979271873531416</v>
+        <v>0.9876814431796622</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0004676958576030677</v>
+        <v>0.005163712084319599</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0006671470560795822</v>
+        <v>0.005789698169949614</v>
       </c>
       <c r="F41" t="n">
-        <v>1.905673200402005e-05</v>
+        <v>1.474773941365082e-05</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9979271873531416</v>
+        <v>0.9876814431796622</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1884,61 +1884,61 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39108.fa</t>
+          <t>even_MAG-GUT29494.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.006860507919524268</v>
+        <v>0.0008283790051493955</v>
       </c>
       <c r="C42" t="n">
-        <v>0.00154769470067013</v>
+        <v>0.9847890161797909</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9779538341946395</v>
+        <v>0.003557951495684125</v>
       </c>
       <c r="E42" t="n">
-        <v>0.003731552551581182</v>
+        <v>0.01076199800939103</v>
       </c>
       <c r="F42" t="n">
-        <v>0.009906410633584793</v>
+        <v>6.265530998448124e-05</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9779538341946395</v>
+        <v>0.9847890161797909</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44688.fa</t>
+          <t>even_MAG-GUT30102.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.004889800977386813</v>
+        <v>0.004262310500699466</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9887747049575589</v>
+        <v>0.7944508438673517</v>
       </c>
       <c r="D43" t="n">
-        <v>0.001361351162406525</v>
+        <v>0.09952502142864321</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004433007713517761</v>
+        <v>0.1017507064427587</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0005411351891300176</v>
+        <v>1.111776054697482e-05</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9887747049575589</v>
+        <v>0.7944508438673517</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1954,61 +1954,61 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44961.fa</t>
+          <t>even_MAG-GUT31502.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0002929932059566098</v>
+        <v>0.9759774457515197</v>
       </c>
       <c r="C44" t="n">
-        <v>0.004761989478853995</v>
+        <v>0.006315254679689507</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9749335529149418</v>
+        <v>1.851329085496406e-05</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0160527787178649</v>
+        <v>0.0005946423473214799</v>
       </c>
       <c r="F44" t="n">
-        <v>0.003958685682382717</v>
+        <v>0.01709414393061445</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9749335529149418</v>
+        <v>0.9759774457515197</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45090.fa</t>
+          <t>even_MAG-GUT31546.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7.688667264882253e-05</v>
+        <v>0.2585051623475759</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1095571651046203</v>
+        <v>0.01137192964070077</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8877201995824991</v>
+        <v>0.72365339421186</v>
       </c>
       <c r="E45" t="n">
-        <v>0.002645591010534549</v>
+        <v>0.005957657386204227</v>
       </c>
       <c r="F45" t="n">
-        <v>1.576296971806159e-07</v>
+        <v>0.0005118564136589924</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8877201995824991</v>
+        <v>0.72365339421186</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2017,68 +2017,68 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Eggerthellaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46719.fa</t>
+          <t>even_MAG-GUT32356.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.001571660328745575</v>
+        <v>0.9599803778159348</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01967610369534735</v>
+        <v>0.002459195390905691</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9583883977610872</v>
+        <v>2.876957413263877e-05</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0136462153171231</v>
+        <v>0.001845266275771356</v>
       </c>
       <c r="F46" t="n">
-        <v>0.006717622897696804</v>
+        <v>0.03568639094325538</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9583883977610872</v>
+        <v>0.9599803778159348</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5486.fa</t>
+          <t>even_MAG-GUT32404.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.001680090188255484</v>
+        <v>1.39019597495375e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>0.989482213013599</v>
+        <v>0.6767477457438984</v>
       </c>
       <c r="D47" t="n">
-        <v>0.007096830207992686</v>
+        <v>0.3198693418472203</v>
       </c>
       <c r="E47" t="n">
-        <v>0.00154393919622773</v>
+        <v>0.003368521235074642</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0001969273939252374</v>
+        <v>4.892140571837923e-07</v>
       </c>
       <c r="G47" t="n">
-        <v>0.989482213013599</v>
+        <v>0.6767477457438984</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2087,243 +2087,243 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Coriobacteriaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55663.fa</t>
+          <t>even_MAG-GUT32509.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0005833185548295211</v>
+        <v>0.0001127859145581428</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0102706381562086</v>
+        <v>0.9311880773508574</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9847046209488255</v>
+        <v>0.05137688517356363</v>
       </c>
       <c r="E48" t="n">
-        <v>0.002784196223733522</v>
+        <v>0.01731343106974336</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001657226116402865</v>
+        <v>8.82049127763464e-06</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9847046209488255</v>
+        <v>0.9311880773508574</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55688.fa</t>
+          <t>even_MAG-GUT32879.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0007784414220628255</v>
+        <v>0.002297908459112743</v>
       </c>
       <c r="C49" t="n">
-        <v>0.005780030274664898</v>
+        <v>0.8088969259987961</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9875111122775088</v>
+        <v>0.1336527716477264</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003231906559253381</v>
+        <v>0.05514847220495749</v>
       </c>
       <c r="F49" t="n">
-        <v>0.002698509466510149</v>
+        <v>3.921689407220395e-06</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9875111122775088</v>
+        <v>0.8088969259987961</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57392.fa</t>
+          <t>even_MAG-GUT32889.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4.858140420185047e-05</v>
+        <v>0.9811948956645193</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9546229295501734</v>
+        <v>0.001875499961938742</v>
       </c>
       <c r="D50" t="n">
-        <v>0.001212839116011625</v>
+        <v>6.152162910012774e-05</v>
       </c>
       <c r="E50" t="n">
-        <v>0.04411497946410674</v>
+        <v>0.01018548228242826</v>
       </c>
       <c r="F50" t="n">
-        <v>6.704655062176379e-07</v>
+        <v>0.006682600462013579</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9546229295501734</v>
+        <v>0.9811948956645193</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57492.fa</t>
+          <t>even_MAG-GUT32902.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.002796473966837702</v>
+        <v>0.9741760358292587</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9866334465462425</v>
+        <v>0.01884451500710905</v>
       </c>
       <c r="D51" t="n">
-        <v>0.003154064074177005</v>
+        <v>1.694441548760726e-05</v>
       </c>
       <c r="E51" t="n">
-        <v>0.006886611794388812</v>
+        <v>0.0006908484724683689</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00052940361835384</v>
+        <v>0.006271656275676216</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9866334465462425</v>
+        <v>0.9741760358292587</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Atopobiaceae</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57819.fa</t>
+          <t>even_MAG-GUT33244.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.478822294361507e-05</v>
+        <v>0.01306732437779783</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0008814195196380656</v>
+        <v>0.9582605818441874</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9969963500373564</v>
+        <v>0.001517548551713235</v>
       </c>
       <c r="E52" t="n">
-        <v>0.000876400269792986</v>
+        <v>0.02700910560136068</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001231041950269009</v>
+        <v>0.0001454396249408097</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9969963500373564</v>
+        <v>0.9582605818441874</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59296.fa</t>
+          <t>even_MAG-GUT33324.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.823039316047746e-06</v>
+        <v>0.0003400375262317341</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0006536757526423396</v>
+        <v>0.8530037422062889</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9978637059381624</v>
+        <v>0.1272718487823911</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001091837095881474</v>
+        <v>0.0193794242983828</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0003879581739975811</v>
+        <v>4.947186705488822e-06</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9978637059381624</v>
+        <v>0.8530037422062889</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59532.fa</t>
+          <t>even_MAG-GUT33557.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.005232345170050437</v>
+        <v>0.001176818980714422</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9762429210504167</v>
+        <v>0.9950428314192208</v>
       </c>
       <c r="D54" t="n">
-        <v>0.002041303565435989</v>
+        <v>0.0006272270922598481</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0164387236287315</v>
+        <v>0.003143383551727021</v>
       </c>
       <c r="F54" t="n">
-        <v>4.470658536550643e-05</v>
+        <v>9.738956077909348e-06</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9762429210504167</v>
+        <v>0.9950428314192208</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2339,26 +2339,26 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59561.fa</t>
+          <t>even_MAG-GUT33569.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.001316648032370727</v>
+        <v>0.03567031527356877</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9946727825534755</v>
+        <v>0.9389869972837408</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0002150946216196122</v>
+        <v>0.005598252802897101</v>
       </c>
       <c r="E55" t="n">
-        <v>0.003740855932441828</v>
+        <v>0.0195376357026041</v>
       </c>
       <c r="F55" t="n">
-        <v>5.46188600922575e-05</v>
+        <v>0.0002067989371892675</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9946727825534755</v>
+        <v>0.9389869972837408</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2374,26 +2374,26 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59569.fa</t>
+          <t>even_MAG-GUT33914.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.07327616436067293</v>
+        <v>2.63559986346203e-06</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8957186146938354</v>
+        <v>0.5954816401430578</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0004638915016833043</v>
+        <v>0.4044097455221948</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03047431489555059</v>
+        <v>2.715715288687918e-05</v>
       </c>
       <c r="F56" t="n">
-        <v>6.70145482577747e-05</v>
+        <v>7.882158199701685e-05</v>
       </c>
       <c r="G56" t="n">
-        <v>0.8957186146938354</v>
+        <v>0.5954816401430578</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2402,33 +2402,33 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Coriobacteriaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61666.fa</t>
+          <t>even_MAG-GUT34594.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01958491355798631</v>
+        <v>0.001380608956681406</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9078407642452647</v>
+        <v>0.9757935158606874</v>
       </c>
       <c r="D57" t="n">
-        <v>0.04336068803622221</v>
+        <v>0.005788488566949715</v>
       </c>
       <c r="E57" t="n">
-        <v>0.02613132165773881</v>
+        <v>0.01703079846506137</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003082312502788055</v>
+        <v>6.588150620088456e-06</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9078407642452647</v>
+        <v>0.9757935158606874</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2444,166 +2444,166 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62293.fa</t>
+          <t>even_MAG-GUT35087.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>7.953331924237001e-06</v>
+        <v>0.0003074448242142135</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0002599811193031174</v>
+        <v>0.8106082033908292</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9934659099535597</v>
+        <v>0.132554670680474</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0003078165548074268</v>
+        <v>0.05652851144605339</v>
       </c>
       <c r="F58" t="n">
-        <v>0.005958339040405596</v>
+        <v>1.169658429056492e-06</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9934659099535597</v>
+        <v>0.8106082033908292</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67120.fa</t>
+          <t>even_MAG-GUT35198.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0001388893671358731</v>
+        <v>0.0006359057161853082</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01713415311935326</v>
+        <v>0.9895776267364265</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9803332705769255</v>
+        <v>0.005772136296499361</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001067385089619421</v>
+        <v>0.003962394384488069</v>
       </c>
       <c r="F59" t="n">
-        <v>0.001326301846965776</v>
+        <v>5.193686640079739e-05</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9803332705769255</v>
+        <v>0.9895776267364265</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67839.fa</t>
+          <t>even_MAG-GUT35206.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.001661764588817274</v>
+        <v>9.215818041536148e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>0.09526958159592935</v>
+        <v>0.9105314563888804</v>
       </c>
       <c r="D60" t="n">
-        <v>0.884719253775868</v>
+        <v>0.08604881280739923</v>
       </c>
       <c r="E60" t="n">
-        <v>0.006794788280653784</v>
+        <v>0.003319448883569702</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01155461175873157</v>
+        <v>8.123739735330093e-06</v>
       </c>
       <c r="G60" t="n">
-        <v>0.884719253775868</v>
+        <v>0.9105314563888804</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67977.fa</t>
+          <t>even_MAG-GUT35271.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.001161282399489063</v>
+        <v>0.0001389986491581949</v>
       </c>
       <c r="C61" t="n">
-        <v>0.02352768558105852</v>
+        <v>0.9870101661486684</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9706964074893354</v>
+        <v>0.008826010423246581</v>
       </c>
       <c r="E61" t="n">
-        <v>0.003554137483786095</v>
+        <v>0.004011556157841203</v>
       </c>
       <c r="F61" t="n">
-        <v>0.001060487046330984</v>
+        <v>1.326862108564937e-05</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9706964074893354</v>
+        <v>0.9870101661486684</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68023.fa</t>
+          <t>even_MAG-GUT3531.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.0008297803615533601</v>
+        <v>0.001552514493762952</v>
       </c>
       <c r="C62" t="n">
-        <v>0.02223487873821604</v>
+        <v>0.01122585547594711</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9731894944131468</v>
+        <v>0.9837220020381451</v>
       </c>
       <c r="E62" t="n">
-        <v>0.002779526704916476</v>
+        <v>0.003494105858522595</v>
       </c>
       <c r="F62" t="n">
-        <v>0.000966319782167307</v>
+        <v>5.522133622305463e-06</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9731894944131468</v>
+        <v>0.9837220020381451</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2619,271 +2619,271 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68145.fa</t>
+          <t>even_MAG-GUT35597.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0005918019402491819</v>
+        <v>0.0001712989833395226</v>
       </c>
       <c r="C63" t="n">
-        <v>0.008228960228815639</v>
+        <v>0.6380516519336712</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9667674373113305</v>
+        <v>0.3208884897035105</v>
       </c>
       <c r="E63" t="n">
-        <v>0.01300993191756193</v>
+        <v>0.04088512959212762</v>
       </c>
       <c r="F63" t="n">
-        <v>0.01140186860204264</v>
+        <v>3.429787351040363e-06</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9667674373113305</v>
+        <v>0.6380516519336712</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68157.fa</t>
+          <t>even_MAG-GUT36441.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>5.218319510612505e-05</v>
+        <v>0.0001525129982804826</v>
       </c>
       <c r="C64" t="n">
-        <v>0.004437607917433592</v>
+        <v>0.8572031527567803</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9908959897076884</v>
+        <v>0.1383753956802309</v>
       </c>
       <c r="E64" t="n">
-        <v>0.004266357263102743</v>
+        <v>0.004267983346060601</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0003478619166692616</v>
+        <v>9.552186476439978e-07</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9908959897076884</v>
+        <v>0.8572031527567803</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68181.fa</t>
+          <t>even_MAG-GUT3651.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.002806043375688431</v>
+        <v>3.79788228334883e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01285894834739332</v>
+        <v>0.8897383998541305</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9658169205520375</v>
+        <v>0.1048047803058904</v>
       </c>
       <c r="E65" t="n">
-        <v>0.01213468135291674</v>
+        <v>0.005418123219985235</v>
       </c>
       <c r="F65" t="n">
-        <v>0.006383406371964064</v>
+        <v>7.177971603555986e-07</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9658169205520375</v>
+        <v>0.8897383998541305</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68598.fa</t>
+          <t>even_MAG-GUT3702.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.009025621236243848</v>
+        <v>0.002547961933062701</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01614433210308792</v>
+        <v>0.961561068340181</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9744231651895283</v>
+        <v>0.0256498903212822</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0003936387507735445</v>
+        <v>0.0102292981438599</v>
       </c>
       <c r="F66" t="n">
-        <v>1.324272036639603e-05</v>
+        <v>1.178126161436441e-05</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9744231651895283</v>
+        <v>0.961561068340181</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68659.fa</t>
+          <t>even_MAG-GUT37024.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.007256261572706354</v>
+        <v>0.00280582051767583</v>
       </c>
       <c r="C67" t="n">
-        <v>0.04793771713605613</v>
+        <v>0.9920322524680778</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9207769057510261</v>
+        <v>0.001703184640040397</v>
       </c>
       <c r="E67" t="n">
-        <v>0.01618352056129194</v>
+        <v>0.003434432237382889</v>
       </c>
       <c r="F67" t="n">
-        <v>0.007845594978919535</v>
+        <v>2.431013682305553e-05</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9207769057510261</v>
+        <v>0.9920322524680778</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74324.fa</t>
+          <t>even_MAG-GUT37154.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.001165612619147045</v>
+        <v>4.383392445304386e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>0.009524780733870204</v>
+        <v>0.8879094801443606</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9593006024515383</v>
+        <v>0.1109120719202205</v>
       </c>
       <c r="E68" t="n">
-        <v>0.02084473449845622</v>
+        <v>0.001133449093128523</v>
       </c>
       <c r="F68" t="n">
-        <v>0.009164269696988175</v>
+        <v>1.164917837494264e-06</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9593006024515383</v>
+        <v>0.8879094801443606</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80819.fa</t>
+          <t>even_MAG-GUT37934.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6.538999769674307e-05</v>
+        <v>0.0003221442750127297</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0448694563659477</v>
+        <v>0.6555896328180605</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9548715647855455</v>
+        <v>0.3308153940941326</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0001707873995905836</v>
+        <v>0.01326865857307193</v>
       </c>
       <c r="F69" t="n">
-        <v>2.280145121954773e-05</v>
+        <v>4.170239722226688e-06</v>
       </c>
       <c r="G69" t="n">
-        <v>0.9548715647855455</v>
+        <v>0.6555896328180605</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81959.fa</t>
+          <t>even_MAG-GUT38016.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01438287154635142</v>
+        <v>0.3705156105440213</v>
       </c>
       <c r="C70" t="n">
-        <v>0.02918392198212001</v>
+        <v>0.005987119868002284</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9336470714295084</v>
+        <v>0.6157757633512336</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01787773004753833</v>
+        <v>0.007686631839828711</v>
       </c>
       <c r="F70" t="n">
-        <v>0.004908404994481973</v>
+        <v>3.487439691414869e-05</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9336470714295084</v>
+        <v>0.6157757633512336</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2892,68 +2892,68 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Eggerthellaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82008.fa</t>
+          <t>even_MAG-GUT38263.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.0002696162992965021</v>
+        <v>0.000918913001171681</v>
       </c>
       <c r="C71" t="n">
-        <v>0.009916627324146552</v>
+        <v>0.9979271873531416</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9869261201070886</v>
+        <v>0.0004676958576030677</v>
       </c>
       <c r="E71" t="n">
-        <v>0.002887590408509715</v>
+        <v>0.0006671470560795822</v>
       </c>
       <c r="F71" t="n">
-        <v>4.586095859329033e-08</v>
+        <v>1.905673200402005e-05</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9869261201070886</v>
+        <v>0.9979271873531416</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85133.fa</t>
+          <t>even_MAG-GUT38584.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.003816618954074236</v>
+        <v>0.0007221079228399344</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9693361287538378</v>
+        <v>0.7177871545542824</v>
       </c>
       <c r="D72" t="n">
-        <v>0.006017026642627561</v>
+        <v>0.2475491168697055</v>
       </c>
       <c r="E72" t="n">
-        <v>0.02012540716731216</v>
+        <v>0.03393988746303183</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0007048184821480753</v>
+        <v>1.733190140376896e-06</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9693361287538378</v>
+        <v>0.7177871545542824</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2962,33 +2962,33 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Coriobacteriaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8776.fa</t>
+          <t>even_MAG-GUT38999.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2.904086345632904e-06</v>
+        <v>0.3921412593833696</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0003712523796169981</v>
+        <v>0.01063661142055043</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9962487457393636</v>
+        <v>0.5882753537819709</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0001095634442293814</v>
+        <v>0.008456519133855808</v>
       </c>
       <c r="F73" t="n">
-        <v>0.003267534350444357</v>
+        <v>0.0004902562802531079</v>
       </c>
       <c r="G73" t="n">
-        <v>0.9962487457393636</v>
+        <v>0.5882753537819709</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2997,182 +2997,1722 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Eggerthellaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89959.fa</t>
+          <t>even_MAG-GUT39108.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.996037786995626</v>
+        <v>0.006860507919524268</v>
       </c>
       <c r="C74" t="n">
-        <v>0.002224120727587026</v>
+        <v>0.00154769470067013</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0009170190797434917</v>
+        <v>0.9779538341946395</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0007009994397822129</v>
+        <v>0.003731552551581182</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0001200737572613363</v>
+        <v>0.009906410633584793</v>
       </c>
       <c r="G74" t="n">
-        <v>0.996037786995626</v>
+        <v>0.9779538341946395</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90583.fa</t>
+          <t>even_MAG-GUT39152.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9974093239798631</v>
+        <v>0.0006513864806663324</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0005563793673998055</v>
+        <v>0.7506695550469996</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0007586836298314064</v>
+        <v>0.2145438706019892</v>
       </c>
       <c r="E75" t="n">
-        <v>0.001039475271884466</v>
+        <v>0.03413024515899988</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0002361377510210851</v>
+        <v>4.94271134499108e-06</v>
       </c>
       <c r="G75" t="n">
-        <v>0.9974093239798631</v>
+        <v>0.7506695550469996</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>f__Atopobiaceae</t>
+          <t>f__Coriobacteriaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91633.fa</t>
+          <t>even_MAG-GUT3922.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.002313174038344637</v>
+        <v>0.0192674682232101</v>
       </c>
       <c r="C76" t="n">
-        <v>0.004008228664070521</v>
+        <v>0.0003109078756455922</v>
       </c>
       <c r="D76" t="n">
-        <v>0.447186015282479</v>
+        <v>0.9563070070452387</v>
       </c>
       <c r="E76" t="n">
-        <v>0.007039258054543873</v>
+        <v>0.001759786308762213</v>
       </c>
       <c r="F76" t="n">
-        <v>0.539453323960562</v>
+        <v>0.02235483054714338</v>
       </c>
       <c r="G76" t="n">
-        <v>0.539453323960562</v>
+        <v>0.9563070070452387</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>f__UMGS124</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>f__UMGS124</t>
+          <t>f__Eggerthellaceae</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9228.fa</t>
+          <t>even_MAG-GUT4044.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1.9073608969504e-06</v>
+        <v>0.0009673832497660671</v>
       </c>
       <c r="C77" t="n">
-        <v>0.00128864543149432</v>
+        <v>0.8104388017154203</v>
       </c>
       <c r="D77" t="n">
-        <v>0.993931788351361</v>
+        <v>0.164700360823324</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0001383969420944585</v>
+        <v>0.02388773741538878</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004639261914153398</v>
+        <v>5.716796100957513e-06</v>
       </c>
       <c r="G77" t="n">
-        <v>0.993931788351361</v>
+        <v>0.8104388017154203</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Coriobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT4062.fa</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1.580248593390401e-05</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.9592603906204479</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.03504470658969376</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.005677670532612781</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.42977131160691e-06</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.9592603906204479</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT4125.fa</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.000683565788333758</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.7869412339883735</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.1799205150995216</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.03245094437813392</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3.740745637256701e-06</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.7869412339883735</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT4207.fa</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.000174936345606832</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.9248343656951128</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.03196904740120065</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.04302029126388608</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.359294193716273e-06</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.9248343656951128</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT44688.fa</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.004889800977386813</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.9887747049575589</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.001361351162406525</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.004433007713517761</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0005411351891300176</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.9887747049575589</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT45090.fa</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>7.688667264882253e-05</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.1095571651046203</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.8877201995824991</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.002645591010534549</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.576296971806159e-07</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.8877201995824991</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT4832.fa</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.0001517171353029262</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.8258074848156719</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.1677293840534924</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.006309942381713204</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.471613819469366e-06</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.8258074848156719</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT50219.fa</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>5.197701085251459e-05</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.9810678551875035</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.01589253122460672</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.002986881785407404</v>
+      </c>
+      <c r="F84" t="n">
+        <v>7.547916299239447e-07</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.9810678551875035</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT54544.fa</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.001097421981328632</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.8015176539028569</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.09293788013810844</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.1044392010451332</v>
+      </c>
+      <c r="F85" t="n">
+        <v>7.842932572688115e-06</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.8015176539028569</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT5486.fa</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.001680090188255484</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.989482213013599</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.007096830207992686</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.00154393919622773</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0001969273939252374</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.989482213013599</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT56948.fa</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.000174292731032527</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.93275593143819</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.05203314786106392</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.01503474639149393</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.881578219483245e-06</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.93275593143819</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57094.fa</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0001800069228223189</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.750018803340463</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.2306664422728864</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.01913326550356504</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.481960263042129e-06</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.750018803340463</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57392.fa</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>4.858140420185047e-05</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.9546229295501734</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.001212839116011625</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.04411497946410674</v>
+      </c>
+      <c r="F89" t="n">
+        <v>6.704655062176379e-07</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.9546229295501734</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57492.fa</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.002796473966837702</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.9866334465462425</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.003154064074177005</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.006886611794388812</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.00052940361835384</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.9866334465462425</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57682.fa</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.0003264165625389516</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.9330887470907666</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.06533531651666641</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.001249194578145039</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3.252518827231305e-07</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.9330887470907666</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57819.fa</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1.478822294361507e-05</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.0008814195196380656</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.9969963500373564</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.000876400269792986</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.001231041950269009</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.9969963500373564</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57904.fa</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.0002607487881974997</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.8342310361788217</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.1608924888318536</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.004613493293832018</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.232907295055602e-06</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.8342310361788217</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58156.fa</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>9.587661036135034e-05</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.9576990510084893</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.03473302634274029</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.007469391452707775</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2.654585701363483e-06</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.9576990510084893</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58768.fa</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.0003835808010121069</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.8216822898619338</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.1669743318637664</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.0109586271329917</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.17034029602373e-06</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.8216822898619338</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59114.fa</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.006369852272526396</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.8594302386226519</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.1094388642231038</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.02473559083465858</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2.545404705947943e-05</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.8594302386226519</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59205.fa</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.0003253833881239141</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.8082937627814647</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.1779325970924563</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.01344673279166102</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.523946294123329e-06</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.8082937627814647</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59296.fa</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2.823039316047746e-06</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.0006536757526423396</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.9978637059381624</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.001091837095881474</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.0003879581739975811</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.9978637059381624</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59532.fa</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.005232345170050437</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.9762429210504167</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.002041303565435989</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0164387236287315</v>
+      </c>
+      <c r="F99" t="n">
+        <v>4.470658536550643e-05</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.9762429210504167</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59561.fa</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.001316648032370727</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.9946727825534755</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.0002150946216196122</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.003740855932441828</v>
+      </c>
+      <c r="F100" t="n">
+        <v>5.46188600922575e-05</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.9946727825534755</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59569.fa</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.07327616436067293</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.8957186146938354</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.0004638915016833043</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.03047431489555059</v>
+      </c>
+      <c r="F101" t="n">
+        <v>6.70145482577747e-05</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.8957186146938354</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61666.fa</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.01958491355798631</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.9078407642452647</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.04336068803622221</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.02613132165773881</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.003082312502788055</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.9078407642452647</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62293.fa</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>7.953331924237001e-06</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.0002599811193031174</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.9934659099535597</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.0003078165548074268</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.005958339040405596</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.9934659099535597</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62370.fa</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.2707562272846568</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.02401797505635293</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.7011094883473306</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.003813729711550855</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.0003025796001088339</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.7011094883473306</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6856.fa</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.006464284357969917</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.9836310678045517</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.005497488803424841</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.004399712946975378</v>
+      </c>
+      <c r="F105" t="n">
+        <v>7.44608707816512e-06</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.9836310678045517</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68598.fa</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.009025621236243848</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.01614433210308792</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.9744231651895283</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.0003936387507735445</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1.324272036639603e-05</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.9744231651895283</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6929.fa</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.0142257100524505</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.9338086215674074</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.04798446571248765</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.003964716134666183</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.648653298821765e-05</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.9338086215674074</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT79219.fa</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.0002132892640076983</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.9801863256798481</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.0151023058650656</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.00448848543389556</v>
+      </c>
+      <c r="F108" t="n">
+        <v>9.593757183224279e-06</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.9801863256798481</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80384.fa</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.0007217322106867852</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.0007506656053483409</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.9890118909524402</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.003164754053682099</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.006350957177842436</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.9890118909524402</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80720.fa</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.001661917129838878</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.0001111646852783036</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.9556115152378891</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.0009066798011109599</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.0417087231458828</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.9556115152378891</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80819.fa</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>6.538999769674307e-05</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.0448694563659477</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.9548715647855455</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0001707873995905836</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2.280145121954773e-05</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.9548715647855455</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81523.fa</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.1163546055972304</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.00820857543898303</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.8664608383801173</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.008925987647623186</v>
+      </c>
+      <c r="F112" t="n">
+        <v>4.999293604592262e-05</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.8664608383801173</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82008.fa</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.0002696162992965021</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.009916627324146552</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.9869261201070886</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.002887590408509715</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4.586095859329033e-08</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.9869261201070886</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85133.fa</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.003816618954074236</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.9693361287538378</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.006017026642627561</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.02012540716731216</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.0007048184821480753</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.9693361287538378</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT8640.fa</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.0001069140582890699</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.8978103836946416</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.0955199615210487</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.006555684508918069</v>
+      </c>
+      <c r="F115" t="n">
+        <v>7.056217102457653e-06</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.8978103836946416</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT8776.fa</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>2.904086345632904e-06</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.0003712523796169981</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.9962487457393636</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.0001095634442293814</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.003267534350444357</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.9962487457393636</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89959.fa</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.996037786995626</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.002224120727587026</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.0009170190797434917</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.0007009994397822129</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.0001200737572613363</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.996037786995626</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>f__Atopobiaceae</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>f__Atopobiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90583.fa</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.9974093239798631</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.0005563793673998055</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.0007586836298314064</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.001039475271884466</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.0002361377510210851</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.9974093239798631</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>f__Atopobiaceae</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>f__Atopobiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9228.fa</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1.9073608969504e-06</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.00128864543149432</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.993931788351361</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.0001383969420944585</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.004639261914153398</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.993931788351361</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>f__Eggerthellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9744.fa</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.3327070588815609</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.3751996733218484</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.2334043012569849</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.03217681621065427</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.02651215032895173</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.3751996733218484</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9760.fa</t>
         </is>
       </c>
-      <c r="B78" t="n">
+      <c r="B121" t="n">
         <v>0.9823944431028062</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C121" t="n">
         <v>0.01141444446794107</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D121" t="n">
         <v>8.149767768038911e-06</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E121" t="n">
         <v>0.0002307756602737973</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F121" t="n">
         <v>0.005952187001210908</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G121" t="n">
         <v>0.9823944431028062</v>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>f__Atopobiaceae</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>f__Atopobiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9970.fa</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.2854085517502117</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.3105452837795866</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.2885256140890843</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.05794081213752753</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.05757973824358997</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.3105452837795866</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>f__Coriobacteriaceae(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/o__Coriobacteriales.xlsx
+++ b/outputs-HGR-r202/o__Coriobacteriales.xlsx
@@ -722,7 +722,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>f__Eggerthellaceae</t>
+          <t>f__Eggerthellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>f__Coriobacteriaceae</t>
+          <t>f__Coriobacteriaceae(reject)</t>
         </is>
       </c>
     </row>
